--- a/data/2020 update/enviro_data_summary_para.xlsx
+++ b/data/2020 update/enviro_data_summary_para.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="301">
   <si>
     <t>Year</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Max Temp</t>
   </si>
   <si>
+    <t>Avg Temp</t>
+  </si>
+  <si>
     <t>Humidity (%)</t>
   </si>
   <si>
@@ -70,708 +73,813 @@
     <t>32.4</t>
   </si>
   <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>31.6</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46.0</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43.0</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>34.8</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.5</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>fuchu</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76.5</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47.5</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>37.6</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.5</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41.0</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>115.5</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>100.5</t>
+  </si>
+  <si>
+    <t>izu</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
+    <t>184.5</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63.0</t>
+  </si>
+  <si>
+    <t>26.6</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>41.4</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33.0</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.0</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>44.3</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52.5</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>42.3</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.0</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>180.5</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60.5</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>41.3</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>125.5</t>
+  </si>
+  <si>
+    <t>mobara</t>
+  </si>
+  <si>
+    <t>237.5</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.0</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.0</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61.0</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.5</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48.5</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34.5</t>
+  </si>
+  <si>
+    <t>nerima</t>
+  </si>
+  <si>
+    <t>294.5</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.5</t>
+  </si>
+  <si>
+    <t>38.9</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48.0</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.0</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.5</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>33.9</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>sapporo</t>
+  </si>
+  <si>
+    <t>28.9</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>236.0</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62.5</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
     <t>23.3</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>31.6</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46.0</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>24.0</t>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.5</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.5</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.5</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70.5</t>
+  </si>
+  <si>
+    <t>tokorozawa</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>329.0</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.5</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.0</t>
+  </si>
+  <si>
+    <t>130.5</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.0</t>
+  </si>
+  <si>
+    <t>166.5</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78.0</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>308.5</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.0</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70.0</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>23.6</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t xml:space="preserve"> 13.5</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>31.7</t>
+    <t xml:space="preserve"> 60.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63.5</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52.0</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>45.3</t>
   </si>
   <si>
     <t>21.1</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.5</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43.0</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>34.8</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.0</t>
-  </si>
-  <si>
-    <t>33.8</t>
+    <t xml:space="preserve"> 66.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41.5</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>45.0</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27.5</t>
-  </si>
-  <si>
-    <t>fuchu</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>20.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76.5</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>33.6</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47.5</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>35.2</t>
-  </si>
-  <si>
-    <t>22.8</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>37.6</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.5</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.5</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41.0</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>21.2</t>
-  </si>
-  <si>
-    <t>115.5</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
-    <t>100.5</t>
-  </si>
-  <si>
-    <t>izu</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>184.5</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63.0</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33.0</t>
-  </si>
-  <si>
-    <t>32.6</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.0</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52.5</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.0</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>20.8</t>
-  </si>
-  <si>
-    <t>180.5</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60.5</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>125.5</t>
-  </si>
-  <si>
-    <t>mobara</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>237.5</t>
-  </si>
-  <si>
-    <t>35.6</t>
-  </si>
-  <si>
-    <t>21.8</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26.0</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>24.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.0</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.5</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61.0</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26.5</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48.5</t>
-  </si>
-  <si>
-    <t>36.6</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34.5</t>
-  </si>
-  <si>
-    <t>nerima</t>
-  </si>
-  <si>
-    <t>294.5</t>
-  </si>
-  <si>
-    <t>33.4</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.5</t>
-  </si>
-  <si>
-    <t>38.9</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48.0</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.0</t>
-  </si>
-  <si>
-    <t>36.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.5</t>
-  </si>
-  <si>
-    <t>37.2</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>33.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36.5</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>sapporo</t>
-  </si>
-  <si>
-    <t>28.9</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>236.0</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62.5</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>162.0</t>
-  </si>
-  <si>
-    <t>31.4</t>
-  </si>
-  <si>
-    <t>17.6</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>15.6</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.5</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.5</t>
-  </si>
-  <si>
-    <t>27.3</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.5</t>
-  </si>
-  <si>
-    <t>28.4</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70.5</t>
-  </si>
-  <si>
-    <t>tokorozawa</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46</t>
-  </si>
-  <si>
-    <t>329.0</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21.5</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>37.8</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.0</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60</t>
-  </si>
-  <si>
-    <t>130.5</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40</t>
-  </si>
-  <si>
-    <t>166.5</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78.0</t>
-  </si>
-  <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>308.5</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>112.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.0</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70.0</t>
-  </si>
-  <si>
-    <t>23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63.5</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52.0</t>
-  </si>
-  <si>
-    <t>35.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41.5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 47.0</t>
   </si>
   <si>
@@ -781,40 +889,28 @@
     <t>159.5</t>
   </si>
   <si>
+    <t>25.8</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 68.0</t>
   </si>
   <si>
     <t>32.7</t>
   </si>
   <si>
-    <t>19.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">  7.5</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 59.0</t>
   </si>
   <si>
     <t>36.0</t>
   </si>
   <si>
-    <t>25.1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t xml:space="preserve">  8.5</t>
   </si>
   <si>
     <t xml:space="preserve"> 28.5</t>
-  </si>
-  <si>
-    <t>17.0</t>
   </si>
   <si>
     <t xml:space="preserve"> 20.5</t>
@@ -882,27 +978,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -911,28 +1013,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -940,28 +1048,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -969,144 +1083,174 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -1129,13 +1273,19 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1158,13 +1308,19 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1172,28 +1328,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1201,28 +1363,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1243,31 +1446,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -1278,34 +1481,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1313,34 +1516,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1348,174 +1551,174 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
       </c>
       <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
         <v>83</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -1523,34 +1726,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1573,19 +1776,19 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1593,34 +1796,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1628,34 +1831,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1676,31 +1914,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -1711,34 +1949,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -1746,34 +1984,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1781,34 +2019,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1816,34 +2054,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -1851,34 +2089,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -1886,34 +2124,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
@@ -1921,34 +2159,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1956,34 +2194,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -1991,34 +2229,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
@@ -2026,34 +2264,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -2061,34 +2299,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2109,31 +2382,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -2144,34 +2417,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -2179,34 +2452,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -2214,174 +2487,174 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>150</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" t="s">
-        <v>151</v>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>152</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -2389,34 +2662,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -2439,19 +2712,19 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -2459,34 +2732,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -2494,34 +2767,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2542,31 +2850,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -2577,34 +2885,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -2612,34 +2920,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -2647,174 +2955,174 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" t="s">
-        <v>174</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" t="s">
-        <v>175</v>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -2822,34 +3130,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -2872,19 +3180,19 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -2892,34 +3200,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -2927,34 +3235,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2975,31 +3318,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -3010,34 +3353,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -3045,34 +3388,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -3080,34 +3423,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -3115,34 +3458,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -3150,34 +3493,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -3185,34 +3528,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="I7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -3220,34 +3563,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
@@ -3255,34 +3598,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -3290,34 +3633,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -3325,34 +3668,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12">
@@ -3360,34 +3703,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
-        <v>191</v>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3408,31 +3786,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -3443,34 +3821,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -3478,34 +3856,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -3513,174 +3891,174 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="J4" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" t="s">
-        <v>228</v>
-      </c>
-      <c r="K6" t="s">
-        <v>230</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" t="s">
-        <v>118</v>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" t="s">
-        <v>224</v>
-      </c>
-      <c r="I8" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" t="s">
-        <v>231</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -3688,34 +4066,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -3738,19 +4116,19 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -3758,34 +4136,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -3793,34 +4171,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3841,31 +4254,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -3876,34 +4289,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="K2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -3911,34 +4324,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -3946,34 +4359,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -3981,34 +4394,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
@@ -4016,34 +4429,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -4051,34 +4464,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="J7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -4086,34 +4499,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -4121,34 +4534,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -4156,34 +4569,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11">
@@ -4191,34 +4604,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -4226,34 +4639,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4274,31 +4722,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
@@ -4309,34 +4757,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
@@ -4344,34 +4792,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -4379,174 +4827,174 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>172</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>151</v>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>152</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -4566,22 +5014,22 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -4604,19 +5052,19 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -4624,34 +5072,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -4659,34 +5107,69 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
         <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
